--- a/documentation/labeling_guide.xlsx
+++ b/documentation/labeling_guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edith/git/SurfaceAI/dataset_creation/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandra/Documents/GitHub/dataset_creation/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9185637-3FD4-034E-A08E-06CB0AF47278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886B03D-2A2B-8647-96D5-F0B68AB145BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-12500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Unpaved roads with potholes, ruts or generally a highly uneven surface not safely passable with a regular passenger car but still passable with an average SUV with higher ground clearance. This category also includes highly uneven hiking paths, which are too narrow for cars.</t>
-  </si>
-  <si>
-    <t>Labeling guide</t>
   </si>
   <si>
     <t>Asphalt</t>
@@ -140,6 +137,9 @@
       </rPr>
       <t xml:space="preserve"> (https://wiki.openstreetmap.org/wiki/Key:smoothness).</t>
     </r>
+  </si>
+  <si>
+    <t>Labeling guide for StreetSurfaceVis V1.0</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -261,13 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -297,10 +290,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -327,13 +320,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2286000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1987010</xdr:rowOff>
+      <xdr:rowOff>1259918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -348,7 +341,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -356,14 +349,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="26177"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7330792" y="1672375"/>
-          <a:ext cx="2743200" cy="1924140"/>
+          <a:off x="7112000" y="1981199"/>
+          <a:ext cx="2286000" cy="1183719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -377,13 +369,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2286000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2097732</xdr:rowOff>
+      <xdr:rowOff>1288686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -398,22 +390,30 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="27748"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7330792" y="3835147"/>
-          <a:ext cx="2743200" cy="2034862"/>
+          <a:off x="7112000" y="3276599"/>
+          <a:ext cx="2286000" cy="1225187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,13 +427,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>62871</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2286000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1827170</xdr:rowOff>
+      <xdr:rowOff>1266420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,22 +448,30 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="15592"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7330792" y="5997921"/>
-          <a:ext cx="2743200" cy="1764299"/>
+          <a:off x="7112000" y="4546600"/>
+          <a:ext cx="2286000" cy="1241020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -477,13 +485,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>50170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2286000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1543072</xdr:rowOff>
+      <xdr:rowOff>1283672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -499,7 +507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -512,8 +520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7330792" y="8160692"/>
-          <a:ext cx="2743200" cy="1480202"/>
+          <a:off x="7112000" y="5879470"/>
+          <a:ext cx="2286000" cy="1233502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -527,13 +535,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>62873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2194560</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1674500</xdr:rowOff>
+      <xdr:rowOff>1352177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -549,7 +557,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -562,8 +570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="11241385"/>
-          <a:ext cx="2743200" cy="1611630"/>
+          <a:off x="7112000" y="8406773"/>
+          <a:ext cx="2194560" cy="1289304"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,9 +589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2194560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1796022</xdr:rowOff>
+      <xdr:rowOff>1449390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -599,7 +607,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -612,8 +620,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="13404158"/>
-          <a:ext cx="2743200" cy="1733151"/>
+          <a:off x="7112000" y="9981571"/>
+          <a:ext cx="2194560" cy="1386519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,9 +639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2194560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1751866</xdr:rowOff>
+      <xdr:rowOff>1414066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -649,7 +657,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -662,8 +670,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="15566930"/>
-          <a:ext cx="2743200" cy="1688995"/>
+          <a:off x="7112000" y="11556371"/>
+          <a:ext cx="2194560" cy="1351195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,9 +689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2194560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1899420</xdr:rowOff>
+      <xdr:rowOff>1532112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,7 +707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -712,8 +720,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="17729703"/>
-          <a:ext cx="2743200" cy="1836549"/>
+          <a:off x="7112000" y="13131171"/>
+          <a:ext cx="2194560" cy="1469241"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,13 +735,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>165098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2377440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>2123490</xdr:rowOff>
+      <xdr:rowOff>1565059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -748,22 +756,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="21609"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="20810395"/>
-          <a:ext cx="2743200" cy="2060620"/>
+          <a:off x="7112000" y="16014698"/>
+          <a:ext cx="2377440" cy="1399961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,13 +784,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2377440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>2120270</xdr:rowOff>
+      <xdr:rowOff>1570730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -799,20 +806,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="8347" b="604"/>
+        <a:srcRect t="22434" b="604"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="22973167"/>
-          <a:ext cx="2743200" cy="2057400"/>
+          <a:off x="7112000" y="17551400"/>
+          <a:ext cx="2377440" cy="1507230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -826,13 +833,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>62872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2377440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1801518</xdr:rowOff>
+      <xdr:rowOff>1569700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -848,7 +855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -861,8 +868,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="25135939"/>
-          <a:ext cx="2743200" cy="1738648"/>
+          <a:off x="7112000" y="19189072"/>
+          <a:ext cx="2377440" cy="1506828"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,15 +881,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:colOff>2402840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>2069470</xdr:rowOff>
+      <xdr:rowOff>1631479</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -898,20 +905,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="3356" r="5119"/>
+        <a:srcRect l="3356" t="13489" r="5119"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="27298712"/>
-          <a:ext cx="2743200" cy="2006600"/>
+          <a:off x="7137400" y="20891498"/>
+          <a:ext cx="2377440" cy="1504481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -924,14 +931,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>62871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>2129839</xdr:rowOff>
+      <xdr:colOff>2468880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1923143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -947,7 +954,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -960,8 +967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="30995543"/>
-          <a:ext cx="2743200" cy="2066969"/>
+          <a:off x="7112000" y="23684871"/>
+          <a:ext cx="2468880" cy="1860272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,14 +981,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>62871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1952378</xdr:rowOff>
+      <xdr:colOff>2468880</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1763426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -997,7 +1004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1010,8 +1017,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="33158317"/>
-          <a:ext cx="2743200" cy="1889507"/>
+          <a:off x="7112000" y="25615271"/>
+          <a:ext cx="2468880" cy="1700555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,14 +1031,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1967240</xdr:rowOff>
+      <xdr:colOff>2468880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1776805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,7 +1054,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1060,8 +1067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="35321088"/>
-          <a:ext cx="2743200" cy="1904370"/>
+          <a:off x="7112000" y="27545672"/>
+          <a:ext cx="2468880" cy="1713933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1074,14 +1081,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>62871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1872700</xdr:rowOff>
+      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1631388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1097,7 +1104,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1110,8 +1117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="38615544"/>
-          <a:ext cx="2743200" cy="1809829"/>
+          <a:off x="7112000" y="30657171"/>
+          <a:ext cx="2377440" cy="1568517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,14 +1131,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>62870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>1827962</xdr:rowOff>
+      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1592618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1147,7 +1154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1160,8 +1167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="40778316"/>
-          <a:ext cx="2743200" cy="1765092"/>
+          <a:off x="7112000" y="32816170"/>
+          <a:ext cx="2377440" cy="1529748"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,14 +1181,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>62872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>2092086</xdr:rowOff>
+      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1821525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1197,7 +1204,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1210,8 +1217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117030" y="42941088"/>
-          <a:ext cx="2743200" cy="2029216"/>
+          <a:off x="7112000" y="34975172"/>
+          <a:ext cx="2377440" cy="1758653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1545,41 +1552,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="76.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
@@ -1600,56 +1607,55 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:3" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1664,7 +1670,7 @@
     </row>
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>0</v>
@@ -1685,50 +1691,51 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="C17" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
@@ -1746,7 +1753,7 @@
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>0</v>
@@ -1767,54 +1774,55 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="C26" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" s="5" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" s="5" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>0</v>
@@ -1834,145 +1842,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" s="5" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="C42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="B43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="12"/>
-    </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1982,7 +1974,7 @@
   <pageMargins left="0.2" right="0.2" top="0.28740157500000002" bottom="0.28740157500000002" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:C8 B6:C6 A16:C17 B15:C15 A25:C26 B24:C24 A34:C35 B33:C33 A42:C43 B41:C41 A14:C14 A23:C23 A31:C32 A39:C40 A45:B45 A9:B9 B46 A10:B10 A11:B11 A12:B12 A18:B18 A19:B19 A20:B20 A21:B21 A27:B27 A28:B28 A29:B29 A30:B30 A36:B36 A37:B37 A38:B38 A44:B44" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:C8 B6:C6 A16:C17 B15:C15 A25:C26 B24:C24 A32:C33 B31:C31 A41:A42 B39:C39 A14:C14 A23:C23 A39 A44 A9:B9 B45 A10:B10 A11:B11 A12:B12 A18:B18 A19:B19 A20:B20 A21:B21 A27:B27 A28:B28 A29:B29 A30:B30 A34:B34 A35:B35 A36:B36 A43 B43 B44 B37:C38 A37 B41:C42" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
